--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_Total_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_Total_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -662,7 +662,7 @@
         <v>2020</v>
       </c>
       <c r="D3" t="n">
-        <v>55253</v>
+        <v>55264</v>
       </c>
       <c r="E3" t="n">
         <v>45326</v>
@@ -698,7 +698,7 @@
         <v>45902.49999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>9966.200000000001</v>
+        <v>9977.200000000001</v>
       </c>
       <c r="Q3" t="n">
         <v>615.7</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>9966.2 (±615.7)</t>
+          <t>9977.2 (±615.7)</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -728,14 +728,14 @@
         <v>5841215</v>
       </c>
       <c r="X3" t="n">
-        <v>170.6</v>
+        <v>170.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>170.6(±10.6)</t>
+          <t>170.8(±10.5)</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>2020</v>
       </c>
       <c r="D4" t="n">
-        <v>49823</v>
+        <v>49832</v>
       </c>
       <c r="E4" t="n">
         <v>43470</v>
@@ -790,7 +790,7 @@
         <v>43359</v>
       </c>
       <c r="P4" t="n">
-        <v>7224.4</v>
+        <v>7233.4</v>
       </c>
       <c r="Q4" t="n">
         <v>760.4</v>
@@ -808,7 +808,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>7224.4 (±760.4)</t>
+          <t>7233.4 (±760.4)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -820,14 +820,14 @@
         <v>3581836</v>
       </c>
       <c r="X4" t="n">
-        <v>201.7</v>
+        <v>201.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>201.7(±21.2)</t>
+          <t>201.9(±21.3)</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
         <v>2020</v>
       </c>
       <c r="D5" t="n">
-        <v>24468</v>
+        <v>24459</v>
       </c>
       <c r="E5" t="n">
         <v>22340</v>
@@ -882,7 +882,7 @@
         <v>22241</v>
       </c>
       <c r="P5" t="n">
-        <v>2664.6</v>
+        <v>2655.6</v>
       </c>
       <c r="Q5" t="n">
         <v>437.6</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2664.6 (±437.6)</t>
+          <t>2655.6 (±437.6)</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -912,14 +912,14 @@
         <v>2086515</v>
       </c>
       <c r="X5" t="n">
-        <v>127.7</v>
+        <v>127.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>127.7(±21.0)</t>
+          <t>127.3(±20.9)</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
         <v>2020</v>
       </c>
       <c r="D9" t="n">
-        <v>7084</v>
+        <v>7086</v>
       </c>
       <c r="E9" t="n">
         <v>6562</v>
@@ -1250,16 +1250,16 @@
         <v>6711.099999999998</v>
       </c>
       <c r="P9" t="n">
-        <v>440.2</v>
+        <v>442.2</v>
       </c>
       <c r="Q9" t="n">
         <v>67.3</v>
       </c>
       <c r="R9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1268,26 +1268,26 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>440.2 (±67.3)</t>
+          <t>442.2 (±67.3)</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>6.6% (±1.0%)</t>
+          <t>6.7% (±1.1%)</t>
         </is>
       </c>
       <c r="W9" t="n">
         <v>699699</v>
       </c>
       <c r="X9" t="n">
-        <v>62.9</v>
+        <v>63.2</v>
       </c>
       <c r="Y9" t="n">
         <v>9.6</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>62.9(±9.6)</t>
+          <t>63.2(±9.6)</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>2020</v>
       </c>
       <c r="D11" t="n">
-        <v>281202</v>
+        <v>281237</v>
       </c>
       <c r="E11" t="n">
         <v>238912</v>
@@ -1434,7 +1434,7 @@
         <v>248249.6</v>
       </c>
       <c r="P11" t="n">
-        <v>35130.6</v>
+        <v>35165.6</v>
       </c>
       <c r="Q11" t="n">
         <v>2178.2</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>35130.6 (±2178.2)</t>
+          <t>35165.6 (±2178.2)</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1464,14 +1464,14 @@
         <v>34787547</v>
       </c>
       <c r="X11" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="Y11" t="n">
         <v>6.2</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>101.0(±6.2)</t>
+          <t>101.1(±6.2)</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
         <v>2020</v>
       </c>
       <c r="D15" t="n">
-        <v>323781</v>
+        <v>323863</v>
       </c>
       <c r="E15" t="n">
         <v>277024</v>
@@ -1802,7 +1802,7 @@
         <v>276895.7</v>
       </c>
       <c r="P15" t="n">
-        <v>51887.4</v>
+        <v>51969.4</v>
       </c>
       <c r="Q15" t="n">
         <v>5002.1</v>
@@ -1811,7 +1811,7 @@
         <v>19.1</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1820,26 +1820,26 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>51887.4 (±5002.1)</t>
+          <t>51969.4 (±5002.1)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>19.1% (±2.2%)</t>
+          <t>19.1% (±2.1%)</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>30591392</v>
       </c>
       <c r="X15" t="n">
-        <v>169.6</v>
+        <v>169.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>169.6(±16.4)</t>
+          <t>169.9(±16.3)</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
         <v>2020</v>
       </c>
       <c r="D17" t="n">
-        <v>18798</v>
+        <v>19007</v>
       </c>
       <c r="E17" t="n">
         <v>17442</v>
@@ -1986,13 +1986,13 @@
         <v>17319.59999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>1995.2</v>
+        <v>2204.2</v>
       </c>
       <c r="Q17" t="n">
         <v>516.8</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>13.1</v>
       </c>
       <c r="S17" t="n">
         <v>3.4</v>
@@ -2004,26 +2004,26 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1995.2 (±516.8)</t>
+          <t>2204.2 (±516.8)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>11.9% (±3.4%)</t>
+          <t>13.1% (±3.4%)</t>
         </is>
       </c>
       <c r="W17" t="n">
         <v>1489736</v>
       </c>
       <c r="X17" t="n">
-        <v>133.9</v>
+        <v>148</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>133.9(±34.7)</t>
+          <t>148.0(±34.6)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
         <v>2020</v>
       </c>
       <c r="D18" t="n">
-        <v>1929</v>
+        <v>1911</v>
       </c>
       <c r="E18" t="n">
         <v>1595</v>
@@ -2078,16 +2078,16 @@
         <v>1718.499999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>259.2</v>
+        <v>241.2</v>
       </c>
       <c r="Q18" t="n">
         <v>48.7</v>
       </c>
       <c r="R18" t="n">
-        <v>15.5</v>
+        <v>14.4</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2096,26 +2096,26 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>259.2 (±48.7)</t>
+          <t>241.2 (±48.7)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>15.5% (±3.3%)</t>
+          <t>14.4% (±3.2%)</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>311144</v>
       </c>
       <c r="X18" t="n">
-        <v>83.3</v>
+        <v>77.5</v>
       </c>
       <c r="Y18" t="n">
         <v>15.7</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>83.3(±15.7)</t>
+          <t>77.5(±15.7)</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>2020</v>
       </c>
       <c r="D20" t="n">
-        <v>2817</v>
+        <v>2856</v>
       </c>
       <c r="E20" t="n">
         <v>2542</v>
@@ -2262,13 +2262,13 @@
         <v>2579.8</v>
       </c>
       <c r="P20" t="n">
-        <v>287.8</v>
+        <v>326.8</v>
       </c>
       <c r="Q20" t="n">
         <v>50.6</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>12.9</v>
       </c>
       <c r="S20" t="n">
         <v>2.2</v>
@@ -2280,26 +2280,26 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>287.8 (±50.6)</t>
+          <t>326.8 (±50.6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>11.4% (±2.2%)</t>
+          <t>12.9% (±2.2%)</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>314318</v>
       </c>
       <c r="X20" t="n">
-        <v>91.59999999999999</v>
+        <v>104</v>
       </c>
       <c r="Y20" t="n">
         <v>16.1</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>91.6(±16.1)</t>
+          <t>104.0(±16.1)</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>16951</v>
+        <v>16952</v>
       </c>
       <c r="E22" t="n">
         <v>17096</v>
@@ -2446,7 +2446,7 @@
         <v>17294.2</v>
       </c>
       <c r="P22" t="n">
-        <v>-208</v>
+        <v>-207</v>
       </c>
       <c r="Q22" t="n">
         <v>135.2</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-208.0 (±135.2)</t>
+          <t>-207.0 (±135.2)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>51543</v>
+        <v>51624</v>
       </c>
       <c r="E24" t="n">
         <v>41987</v>
@@ -2630,13 +2630,13 @@
         <v>44662.79999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>7631</v>
+        <v>7712</v>
       </c>
       <c r="Q24" t="n">
         <v>750.8</v>
       </c>
       <c r="R24" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="S24" t="n">
         <v>2</v>
@@ -2648,26 +2648,26 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>7631.0 (±750.8)</t>
+          <t>7712.0 (±750.8)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>17.4% (±2.0%)</t>
+          <t>17.6% (±2.0%)</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>5435932</v>
       </c>
       <c r="X24" t="n">
-        <v>140.4</v>
+        <v>141.9</v>
       </c>
       <c r="Y24" t="n">
         <v>13.8</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>140.4(±13.8)</t>
+          <t>141.9(±13.8)</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
         <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>24276</v>
+        <v>24286</v>
       </c>
       <c r="E26" t="n">
         <v>21283</v>
@@ -2814,7 +2814,7 @@
         <v>21586</v>
       </c>
       <c r="P26" t="n">
-        <v>2998</v>
+        <v>3008</v>
       </c>
       <c r="Q26" t="n">
         <v>308</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2998.0 (±308.0)</t>
+          <t>3008.0 (±308.0)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2844,14 +2844,14 @@
         <v>2792523</v>
       </c>
       <c r="X26" t="n">
-        <v>107.4</v>
+        <v>107.7</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>107.4(±11.0)</t>
+          <t>107.7(±11.0)</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
         <v>2020</v>
       </c>
       <c r="D30" t="n">
-        <v>32686</v>
+        <v>32713</v>
       </c>
       <c r="E30" t="n">
         <v>27862</v>
@@ -3182,13 +3182,13 @@
         <v>28423.6</v>
       </c>
       <c r="P30" t="n">
-        <v>4607.8</v>
+        <v>4634.8</v>
       </c>
       <c r="Q30" t="n">
         <v>345.4</v>
       </c>
       <c r="R30" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -3200,26 +3200,26 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>4607.8 (±345.4)</t>
+          <t>4634.8 (±345.4)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>16.4% (±1.4%)</t>
+          <t>16.5% (±1.4%)</t>
         </is>
       </c>
       <c r="W30" t="n">
         <v>4337170</v>
       </c>
       <c r="X30" t="n">
-        <v>106.2</v>
+        <v>106.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>106.2(±8.0)</t>
+          <t>106.9(±7.9)</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
         <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>53084</v>
+        <v>53096</v>
       </c>
       <c r="E32" t="n">
         <v>43381</v>
@@ -3366,16 +3366,16 @@
         <v>44124.8</v>
       </c>
       <c r="P32" t="n">
-        <v>9295</v>
+        <v>9307</v>
       </c>
       <c r="Q32" t="n">
         <v>335.8</v>
       </c>
       <c r="R32" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3384,26 +3384,26 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>9295.0 (±335.8)</t>
+          <t>9307.0 (±335.8)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>21.2% (±0.9%)</t>
+          <t>21.3% (±1.0%)</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>5681225</v>
       </c>
       <c r="X32" t="n">
-        <v>163.6</v>
+        <v>163.8</v>
       </c>
       <c r="Y32" t="n">
         <v>5.9</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>163.6(±5.9)</t>
+          <t>163.8(±5.9)</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>56313</v>
+        <v>56318</v>
       </c>
       <c r="E33" t="n">
         <v>46811</v>
@@ -3458,7 +3458,7 @@
         <v>46961</v>
       </c>
       <c r="P33" t="n">
-        <v>10128</v>
+        <v>10133</v>
       </c>
       <c r="Q33" t="n">
         <v>776</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>10128.0 (±776.0)</t>
+          <t>10133.0 (±776.0)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -3488,14 +3488,14 @@
         <v>3369646</v>
       </c>
       <c r="X33" t="n">
-        <v>300.6</v>
+        <v>300.7</v>
       </c>
       <c r="Y33" t="n">
         <v>23</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>300.6(±23.0)</t>
+          <t>300.7(±23.0)</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>23926</v>
+        <v>23898</v>
       </c>
       <c r="E34" t="n">
         <v>21514</v>
@@ -3550,13 +3550,13 @@
         <v>21547.1</v>
       </c>
       <c r="P34" t="n">
-        <v>2806.4</v>
+        <v>2778.4</v>
       </c>
       <c r="Q34" t="n">
         <v>427.5</v>
       </c>
       <c r="R34" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S34" t="n">
         <v>2.3</v>
@@ -3568,26 +3568,26 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2806.4 (±427.5)</t>
+          <t>2778.4 (±427.5)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>13.3% (±2.3%)</t>
+          <t>13.2% (±2.3%)</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>1971650</v>
       </c>
       <c r="X34" t="n">
-        <v>142.3</v>
+        <v>140.9</v>
       </c>
       <c r="Y34" t="n">
         <v>21.7</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>142.3(±21.7)</t>
+          <t>140.9(±21.7)</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>56996</v>
+        <v>56997</v>
       </c>
       <c r="E36" t="n">
         <v>45574</v>
@@ -3734,7 +3734,7 @@
         <v>47035.8</v>
       </c>
       <c r="P36" t="n">
-        <v>10603.2</v>
+        <v>10604.2</v>
       </c>
       <c r="Q36" t="n">
         <v>643</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>10603.2 (±643.0)</t>
+          <t>10604.2 (±643.0)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3882,7 +3882,7 @@
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>6326</v>
+        <v>6327</v>
       </c>
       <c r="E38" t="n">
         <v>5969</v>
@@ -3918,7 +3918,7 @@
         <v>6067.8</v>
       </c>
       <c r="P38" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q38" t="n">
         <v>68.8</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>327.0 (±68.8)</t>
+          <t>328.0 (±68.8)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3948,14 +3948,14 @@
         <v>629277</v>
       </c>
       <c r="X38" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>52.0(±10.9)</t>
+          <t>52.1(±11.0)</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>23173</v>
+        <v>23174</v>
       </c>
       <c r="E39" t="n">
         <v>21577</v>
@@ -4010,7 +4010,7 @@
         <v>22334.3</v>
       </c>
       <c r="P39" t="n">
-        <v>992.8</v>
+        <v>993.8</v>
       </c>
       <c r="Q39" t="n">
         <v>154.1</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>992.8 (±154.1)</t>
+          <t>993.8 (±154.1)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -4043,11 +4043,11 @@
         <v>36.4</v>
       </c>
       <c r="Y39" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>36.4(±5.6)</t>
+          <t>36.4(±5.7)</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>282996</v>
+        <v>283042</v>
       </c>
       <c r="E40" t="n">
         <v>242247</v>
@@ -4102,16 +4102,16 @@
         <v>248112.5</v>
       </c>
       <c r="P40" t="n">
-        <v>36369.6</v>
+        <v>36415.6</v>
       </c>
       <c r="Q40" t="n">
         <v>1486.1</v>
       </c>
       <c r="R40" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4120,26 +4120,26 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>36369.6 (±1486.1)</t>
+          <t>36415.6 (±1486.1)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>14.7% (±0.6%)</t>
+          <t>14.8% (±0.7%)</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>32532669</v>
       </c>
       <c r="X40" t="n">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="Y40" t="n">
         <v>4.6</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>111.8(±4.6)</t>
+          <t>111.9(±4.6)</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>309010</v>
+        <v>309061</v>
       </c>
       <c r="E44" t="n">
         <v>253500</v>
@@ -4470,16 +4470,16 @@
         <v>255004.9</v>
       </c>
       <c r="P44" t="n">
-        <v>57239.6</v>
+        <v>57290.6</v>
       </c>
       <c r="Q44" t="n">
         <v>3234.5</v>
       </c>
       <c r="R44" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="S44" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4488,26 +4488,26 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>57239.6 (±3234.5)</t>
+          <t>57290.6 (±3234.5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>22.7% (±1.5%)</t>
+          <t>22.8% (±1.6%)</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>29050096</v>
       </c>
       <c r="X44" t="n">
-        <v>197</v>
+        <v>197.2</v>
       </c>
       <c r="Y44" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>197.0(±11.2)</t>
+          <t>197.2(±11.1)</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
         <v>2020</v>
       </c>
       <c r="D46" t="n">
-        <v>17999</v>
+        <v>18278</v>
       </c>
       <c r="E46" t="n">
         <v>17146</v>
@@ -4654,13 +4654,13 @@
         <v>16883.8</v>
       </c>
       <c r="P46" t="n">
-        <v>1894.4</v>
+        <v>2173.4</v>
       </c>
       <c r="Q46" t="n">
         <v>779.2</v>
       </c>
       <c r="R46" t="n">
-        <v>11.8</v>
+        <v>13.5</v>
       </c>
       <c r="S46" t="n">
         <v>5.2</v>
@@ -4672,26 +4672,26 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>1894.4 (±779.2)</t>
+          <t>2173.4 (±779.2)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>11.8% (±5.2%)</t>
+          <t>13.5% (±5.2%)</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>1304354</v>
       </c>
       <c r="X46" t="n">
-        <v>145.2</v>
+        <v>166.6</v>
       </c>
       <c r="Y46" t="n">
         <v>59.8</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>145.2(±59.8)</t>
+          <t>166.6(±59.8)</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
         <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>2044</v>
+        <v>2022</v>
       </c>
       <c r="E47" t="n">
         <v>1616</v>
@@ -4746,16 +4746,16 @@
         <v>1775.4</v>
       </c>
       <c r="P47" t="n">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="Q47" t="n">
         <v>40.4</v>
       </c>
       <c r="R47" t="n">
-        <v>17.8</v>
+        <v>16.5</v>
       </c>
       <c r="S47" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4764,26 +4764,26 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>309.0 (±40.4)</t>
+          <t>287.0 (±40.4)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>17.8% (±2.7%)</t>
+          <t>16.5% (±2.6%)</t>
         </is>
       </c>
       <c r="W47" t="n">
         <v>314964</v>
       </c>
       <c r="X47" t="n">
-        <v>98.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="Y47" t="n">
         <v>12.8</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>98.1(±12.8)</t>
+          <t>91.1(±12.8)</t>
         </is>
       </c>
     </row>
@@ -4894,7 +4894,7 @@
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>3299</v>
+        <v>3345</v>
       </c>
       <c r="E49" t="n">
         <v>2634</v>
@@ -4930,16 +4930,16 @@
         <v>2818.399999999999</v>
       </c>
       <c r="P49" t="n">
-        <v>533.4</v>
+        <v>579.4</v>
       </c>
       <c r="Q49" t="n">
         <v>52.8</v>
       </c>
       <c r="R49" t="n">
-        <v>19.3</v>
+        <v>21</v>
       </c>
       <c r="S49" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4948,26 +4948,26 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>533.4 (±52.8)</t>
+          <t>579.4 (±52.8)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>19.3% (±2.2%)</t>
+          <t>21.0% (±2.3%)</t>
         </is>
       </c>
       <c r="W49" t="n">
         <v>307555</v>
       </c>
       <c r="X49" t="n">
-        <v>173.4</v>
+        <v>188.4</v>
       </c>
       <c r="Y49" t="n">
         <v>17.2</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>173.4(±17.2)</t>
+          <t>188.4(±17.2)</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>50962</v>
+        <v>51086</v>
       </c>
       <c r="E53" t="n">
         <v>42418</v>
@@ -5298,16 +5298,16 @@
         <v>45271.19999999998</v>
       </c>
       <c r="P53" t="n">
-        <v>6416</v>
+        <v>6540</v>
       </c>
       <c r="Q53" t="n">
         <v>725.2</v>
       </c>
       <c r="R53" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="S53" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5316,26 +5316,26 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>6416.0 (±725.2)</t>
+          <t>6540.0 (±725.2)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>14.4% (±1.8%)</t>
+          <t>14.7% (±1.9%)</t>
         </is>
       </c>
       <c r="W53" t="n">
         <v>4859977</v>
       </c>
       <c r="X53" t="n">
-        <v>132</v>
+        <v>134.6</v>
       </c>
       <c r="Y53" t="n">
         <v>14.9</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>132.0(±14.9)</t>
+          <t>134.6(±14.9)</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>25871</v>
+        <v>25864</v>
       </c>
       <c r="E55" t="n">
         <v>22426</v>
@@ -5482,13 +5482,13 @@
         <v>22702.90000000001</v>
       </c>
       <c r="P55" t="n">
-        <v>3426</v>
+        <v>3419</v>
       </c>
       <c r="Q55" t="n">
         <v>257.9</v>
       </c>
       <c r="R55" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="S55" t="n">
         <v>1.3</v>
@@ -5500,26 +5500,26 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>3426.0 (±257.9)</t>
+          <t>3419.0 (±257.9)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>15.3% (±1.3%)</t>
+          <t>15.2% (±1.3%)</t>
         </is>
       </c>
       <c r="W55" t="n">
         <v>2665350</v>
       </c>
       <c r="X55" t="n">
-        <v>128.5</v>
+        <v>128.3</v>
       </c>
       <c r="Y55" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>128.5(±9.7)</t>
+          <t>128.3(±9.7)</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>212196</v>
+        <v>212201</v>
       </c>
       <c r="E57" t="n">
         <v>169451</v>
@@ -5666,7 +5666,7 @@
         <v>172041.2</v>
       </c>
       <c r="P57" t="n">
-        <v>41053</v>
+        <v>41058</v>
       </c>
       <c r="Q57" t="n">
         <v>898.2</v>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>41053.0 (±898.2)</t>
+          <t>41058.0 (±898.2)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -5699,11 +5699,11 @@
         <v>177</v>
       </c>
       <c r="Y57" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>177.0(±3.8)</t>
+          <t>177.0(±3.9)</t>
         </is>
       </c>
     </row>
@@ -5814,7 +5814,7 @@
         <v>2020</v>
       </c>
       <c r="D59" t="n">
-        <v>32007</v>
+        <v>32046</v>
       </c>
       <c r="E59" t="n">
         <v>26451</v>
@@ -5850,13 +5850,13 @@
         <v>26858.1</v>
       </c>
       <c r="P59" t="n">
-        <v>5522.4</v>
+        <v>5561.4</v>
       </c>
       <c r="Q59" t="n">
         <v>373.5</v>
       </c>
       <c r="R59" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="S59" t="n">
         <v>1.7</v>
@@ -5868,26 +5868,26 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>5522.4 (±373.5)</t>
+          <t>5561.4 (±373.5)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>20.9% (±1.7%)</t>
+          <t>21.0% (±1.7%)</t>
         </is>
       </c>
       <c r="W59" t="n">
         <v>4268863</v>
       </c>
       <c r="X59" t="n">
-        <v>129.4</v>
+        <v>130.3</v>
       </c>
       <c r="Y59" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>129.4(±8.7)</t>
+          <t>130.3(±8.7)</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
         <v>2020</v>
       </c>
       <c r="D61" t="n">
-        <v>108337</v>
+        <v>108360</v>
       </c>
       <c r="E61" t="n">
         <v>88707</v>
@@ -6034,7 +6034,7 @@
         <v>89999.80000000003</v>
       </c>
       <c r="P61" t="n">
-        <v>19261.2</v>
+        <v>19284.2</v>
       </c>
       <c r="Q61" t="n">
         <v>924</v>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>19261.2 (±924.0)</t>
+          <t>19284.2 (±924.0)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -6064,14 +6064,14 @@
         <v>11522440</v>
       </c>
       <c r="X61" t="n">
-        <v>167.2</v>
+        <v>167.4</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>167.2(±8.0)</t>
+          <t>167.4(±8.0)</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>106136</v>
+        <v>106150</v>
       </c>
       <c r="E62" t="n">
         <v>90281</v>
@@ -6126,13 +6126,13 @@
         <v>90300.40000000001</v>
       </c>
       <c r="P62" t="n">
-        <v>17352.4</v>
+        <v>17366.4</v>
       </c>
       <c r="Q62" t="n">
         <v>1516.8</v>
       </c>
       <c r="R62" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="S62" t="n">
         <v>2</v>
@@ -6144,26 +6144,26 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>17352.4 (±1516.8)</t>
+          <t>17366.4 (±1516.8)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>19.5% (±2.0%)</t>
+          <t>19.6% (±2.0%)</t>
         </is>
       </c>
       <c r="W62" t="n">
         <v>6951482</v>
       </c>
       <c r="X62" t="n">
-        <v>249.6</v>
+        <v>249.8</v>
       </c>
       <c r="Y62" t="n">
         <v>21.8</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>249.6(±21.8)</t>
+          <t>249.8(±21.8)</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>48394</v>
+        <v>48357</v>
       </c>
       <c r="E63" t="n">
         <v>43854</v>
@@ -6218,7 +6218,7 @@
         <v>43762.40000000001</v>
       </c>
       <c r="P63" t="n">
-        <v>5471</v>
+        <v>5434</v>
       </c>
       <c r="Q63" t="n">
         <v>839.4</v>
@@ -6227,7 +6227,7 @@
         <v>12.7</v>
       </c>
       <c r="S63" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -6236,26 +6236,26 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>5471.0 (±839.4)</t>
+          <t>5434.0 (±839.4)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>12.7% (±2.1%)</t>
+          <t>12.7% (±2.2%)</t>
         </is>
       </c>
       <c r="W63" t="n">
         <v>4058165</v>
       </c>
       <c r="X63" t="n">
-        <v>134.8</v>
+        <v>133.9</v>
       </c>
       <c r="Y63" t="n">
         <v>20.7</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>134.8(±20.7)</t>
+          <t>133.9(±20.7)</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>110438</v>
+        <v>110439</v>
       </c>
       <c r="E65" t="n">
         <v>90266</v>
@@ -6402,7 +6402,7 @@
         <v>92466.70000000003</v>
       </c>
       <c r="P65" t="n">
-        <v>19321.8</v>
+        <v>19322.8</v>
       </c>
       <c r="Q65" t="n">
         <v>1350.5</v>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>19321.8 (±1350.5)</t>
+          <t>19322.8 (±1350.5)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -6550,7 +6550,7 @@
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>13410</v>
+        <v>13413</v>
       </c>
       <c r="E67" t="n">
         <v>12531</v>
@@ -6586,7 +6586,7 @@
         <v>12759.5</v>
       </c>
       <c r="P67" t="n">
-        <v>767.2</v>
+        <v>770.2</v>
       </c>
       <c r="Q67" t="n">
         <v>116.7</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>767.2 (±116.7)</t>
+          <t>770.2 (±116.7)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -6616,14 +6616,14 @@
         <v>1328976</v>
       </c>
       <c r="X67" t="n">
-        <v>57.7</v>
+        <v>58</v>
       </c>
       <c r="Y67" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>57.7(±8.8)</t>
+          <t>58.0(±8.7)</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="E68" t="n">
         <v>43422</v>
@@ -6678,7 +6678,7 @@
         <v>44701.00000000001</v>
       </c>
       <c r="P68" t="n">
-        <v>1657.2</v>
+        <v>1658.2</v>
       </c>
       <c r="Q68" t="n">
         <v>335.2</v>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>1657.2 (±335.2)</t>
+          <t>1658.2 (±335.2)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -6734,7 +6734,7 @@
         <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>564198</v>
+        <v>564279</v>
       </c>
       <c r="E69" t="n">
         <v>481159</v>
@@ -6770,7 +6770,7 @@
         <v>496177.1</v>
       </c>
       <c r="P69" t="n">
-        <v>71500.2</v>
+        <v>71581.2</v>
       </c>
       <c r="Q69" t="n">
         <v>3479.3</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>71500.2 (±3479.3)</t>
+          <t>71581.2 (±3479.3)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -6800,14 +6800,14 @@
         <v>67320216</v>
       </c>
       <c r="X69" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="Y69" t="n">
         <v>5.2</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>106.2(±5.2)</t>
+          <t>106.3(±5.2)</t>
         </is>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
         <v>2020</v>
       </c>
       <c r="D73" t="n">
-        <v>632791</v>
+        <v>632924</v>
       </c>
       <c r="E73" t="n">
         <v>530524</v>
@@ -7138,16 +7138,16 @@
         <v>531878.9999999999</v>
       </c>
       <c r="P73" t="n">
-        <v>109127</v>
+        <v>109260</v>
       </c>
       <c r="Q73" t="n">
         <v>8215</v>
       </c>
       <c r="R73" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="S73" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -7156,26 +7156,26 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>109127.0 (±8215.0)</t>
+          <t>109260.0 (±8215.0)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>20.8% (±1.8%)</t>
+          <t>20.9% (±1.9%)</t>
         </is>
       </c>
       <c r="W73" t="n">
         <v>59641488</v>
       </c>
       <c r="X73" t="n">
-        <v>183</v>
+        <v>183.2</v>
       </c>
       <c r="Y73" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>183.0(±13.7)</t>
+          <t>183.2(±13.8)</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>36797</v>
+        <v>37285</v>
       </c>
       <c r="E75" t="n">
         <v>34588</v>
@@ -7322,16 +7322,16 @@
         <v>34177.7</v>
       </c>
       <c r="P75" t="n">
-        <v>3889.6</v>
+        <v>4377.6</v>
       </c>
       <c r="Q75" t="n">
         <v>1270.3</v>
       </c>
       <c r="R75" t="n">
-        <v>11.8</v>
+        <v>13.3</v>
       </c>
       <c r="S75" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -7340,26 +7340,26 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>3889.6 (±1270.3)</t>
+          <t>4377.6 (±1270.3)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>11.8% (±4.1%)</t>
+          <t>13.3% (±4.2%)</t>
         </is>
       </c>
       <c r="W75" t="n">
         <v>2794090</v>
       </c>
       <c r="X75" t="n">
-        <v>139.2</v>
+        <v>156.7</v>
       </c>
       <c r="Y75" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>139.2(±45.5)</t>
+          <t>156.7(±45.4)</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>3973</v>
+        <v>3933</v>
       </c>
       <c r="E76" t="n">
         <v>3211</v>
@@ -7414,13 +7414,13 @@
         <v>3488.9</v>
       </c>
       <c r="P76" t="n">
-        <v>568.2</v>
+        <v>528.2</v>
       </c>
       <c r="Q76" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="R76" t="n">
-        <v>16.7</v>
+        <v>15.5</v>
       </c>
       <c r="S76" t="n">
         <v>2.8</v>
@@ -7432,26 +7432,26 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>568.2 (±84.1)</t>
+          <t>528.2 (±84.1)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>16.7% (±2.8%)</t>
+          <t>15.5% (±2.8%)</t>
         </is>
       </c>
       <c r="W76" t="n">
         <v>626108</v>
       </c>
       <c r="X76" t="n">
-        <v>90.8</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="Y76" t="n">
         <v>13.4</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>90.8(±13.4)</t>
+          <t>84.4(±13.4)</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>6116</v>
+        <v>6201</v>
       </c>
       <c r="E78" t="n">
         <v>5176</v>
@@ -7598,13 +7598,13 @@
         <v>5357.000000000001</v>
       </c>
       <c r="P78" t="n">
-        <v>821.2</v>
+        <v>906.2</v>
       </c>
       <c r="Q78" t="n">
         <v>62.2</v>
       </c>
       <c r="R78" t="n">
-        <v>15.5</v>
+        <v>17.1</v>
       </c>
       <c r="S78" t="n">
         <v>1.3</v>
@@ -7616,26 +7616,26 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>821.2 (±62.2)</t>
+          <t>906.2 (±62.2)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>15.5% (±1.3%)</t>
+          <t>17.1% (±1.3%)</t>
         </is>
       </c>
       <c r="W78" t="n">
         <v>621873</v>
       </c>
       <c r="X78" t="n">
-        <v>132.1</v>
+        <v>145.7</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>132.1(±10.0)</t>
+          <t>145.7(±10.0)</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         <v>2020</v>
       </c>
       <c r="D80" t="n">
-        <v>33527</v>
+        <v>33528</v>
       </c>
       <c r="E80" t="n">
         <v>33242</v>
@@ -7782,7 +7782,7 @@
         <v>33676.19999999999</v>
       </c>
       <c r="P80" t="n">
-        <v>97.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="Q80" t="n">
         <v>246.6</v>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>97.4 (±246.6)</t>
+          <t>98.4 (±246.6)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -7930,7 +7930,7 @@
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>102505</v>
+        <v>102710</v>
       </c>
       <c r="E82" t="n">
         <v>84405</v>
@@ -7966,13 +7966,13 @@
         <v>89926</v>
       </c>
       <c r="P82" t="n">
-        <v>14047</v>
+        <v>14252</v>
       </c>
       <c r="Q82" t="n">
         <v>1468</v>
       </c>
       <c r="R82" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="S82" t="n">
         <v>1.9</v>
@@ -7984,26 +7984,26 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>14047.0 (±1468.0)</t>
+          <t>14252.0 (±1468.0)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>15.9% (±1.9%)</t>
+          <t>16.1% (±1.9%)</t>
         </is>
       </c>
       <c r="W82" t="n">
         <v>10295909</v>
       </c>
       <c r="X82" t="n">
-        <v>136.4</v>
+        <v>138.4</v>
       </c>
       <c r="Y82" t="n">
         <v>14.3</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>136.4(±14.3)</t>
+          <t>138.4(±14.3)</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
         <v>2020</v>
       </c>
       <c r="D84" t="n">
-        <v>50147</v>
+        <v>50150</v>
       </c>
       <c r="E84" t="n">
         <v>43709</v>
@@ -8150,7 +8150,7 @@
         <v>44267.60000000001</v>
       </c>
       <c r="P84" t="n">
-        <v>6424</v>
+        <v>6427</v>
       </c>
       <c r="Q84" t="n">
         <v>544.6</v>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>6424.0 (±544.6)</t>
+          <t>6427.0 (±544.6)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -8180,14 +8180,14 @@
         <v>5457873</v>
       </c>
       <c r="X84" t="n">
-        <v>117.7</v>
+        <v>117.8</v>
       </c>
       <c r="Y84" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>117.7(±10.0)</t>
+          <t>117.8(±9.9)</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
         <v>2020</v>
       </c>
       <c r="D86" t="n">
-        <v>418959</v>
+        <v>418965</v>
       </c>
       <c r="E86" t="n">
         <v>333245</v>
@@ -8334,7 +8334,7 @@
         <v>338588.3999999999</v>
       </c>
       <c r="P86" t="n">
-        <v>82027</v>
+        <v>82033</v>
       </c>
       <c r="Q86" t="n">
         <v>1656.4</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>82027.0 (±1656.4)</t>
+          <t>82033.0 (±1656.4)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -8482,7 +8482,7 @@
         <v>2020</v>
       </c>
       <c r="D88" t="n">
-        <v>64693</v>
+        <v>64759</v>
       </c>
       <c r="E88" t="n">
         <v>54313</v>
@@ -8518,13 +8518,13 @@
         <v>55263.29999999999</v>
       </c>
       <c r="P88" t="n">
-        <v>10130.2</v>
+        <v>10196.2</v>
       </c>
       <c r="Q88" t="n">
         <v>700.5</v>
       </c>
       <c r="R88" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="S88" t="n">
         <v>1.5</v>
@@ -8536,26 +8536,26 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>10130.2 (±700.5)</t>
+          <t>10196.2 (±700.5)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>18.6% (±1.5%)</t>
+          <t>18.7% (±1.5%)</t>
         </is>
       </c>
       <c r="W88" t="n">
         <v>8606033</v>
       </c>
       <c r="X88" t="n">
-        <v>117.7</v>
+        <v>118.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>117.7(±8.2)</t>
+          <t>118.5(±8.1)</t>
         </is>
       </c>
     </row>

--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_Total_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_Total_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -1030,7 +1030,7 @@
         <v>2020</v>
       </c>
       <c r="D7" t="n">
-        <v>53442</v>
+        <v>53445</v>
       </c>
       <c r="E7" t="n">
         <v>44692</v>
@@ -1066,7 +1066,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>8718.6</v>
+        <v>8721.6</v>
       </c>
       <c r="Q7" t="n">
         <v>750.6</v>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>8718.6 (±750.6)</t>
+          <t>8721.6 (±750.6)</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1096,14 +1096,14 @@
         <v>5421943</v>
       </c>
       <c r="X7" t="n">
-        <v>160.8</v>
+        <v>160.9</v>
       </c>
       <c r="Y7" t="n">
         <v>13.8</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>160.8(±13.8)</t>
+          <t>160.9(±13.8)</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
         <v>2020</v>
       </c>
       <c r="D14" t="n">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="E14" t="n">
         <v>901</v>
@@ -1710,13 +1710,13 @@
         <v>937.0999999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>-9.199999999999999</v>
+        <v>-5.2</v>
       </c>
       <c r="Q14" t="n">
         <v>17.9</v>
       </c>
       <c r="R14" t="n">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="S14" t="n">
         <v>1.9</v>
@@ -1728,26 +1728,26 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-9.2 (±17.9)</t>
+          <t>-5.2 (±17.9)</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-1.0% (±1.9%)</t>
+          <t>-0.6% (±1.9%)</t>
         </is>
       </c>
       <c r="W14" t="n">
         <v>177193</v>
       </c>
       <c r="X14" t="n">
-        <v>-5.2</v>
+        <v>-2.9</v>
       </c>
       <c r="Y14" t="n">
         <v>10.1</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-5.2(±10.1)</t>
+          <t>-2.9(±10.1)</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>56997</v>
+        <v>56998</v>
       </c>
       <c r="E36" t="n">
         <v>45574</v>
@@ -3734,7 +3734,7 @@
         <v>47035.8</v>
       </c>
       <c r="P36" t="n">
-        <v>10604.2</v>
+        <v>10605.2</v>
       </c>
       <c r="Q36" t="n">
         <v>643</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>10604.2 (±643.0)</t>
+          <t>10605.2 (±643.0)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3764,14 +3764,14 @@
         <v>5271996</v>
       </c>
       <c r="X36" t="n">
-        <v>201.1</v>
+        <v>201.2</v>
       </c>
       <c r="Y36" t="n">
         <v>12.2</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>201.1(±12.2)</t>
+          <t>201.2(±12.2)</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>6327</v>
+        <v>6328</v>
       </c>
       <c r="E38" t="n">
         <v>5969</v>
@@ -3918,7 +3918,7 @@
         <v>6067.8</v>
       </c>
       <c r="P38" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q38" t="n">
         <v>68.8</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>328.0 (±68.8)</t>
+          <t>329.0 (±68.8)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3948,14 +3948,14 @@
         <v>629277</v>
       </c>
       <c r="X38" t="n">
-        <v>52.1</v>
+        <v>52.3</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>52.1(±11.0)</t>
+          <t>52.3(±10.9)</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
         <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>966</v>
+        <v>980</v>
       </c>
       <c r="E43" t="n">
         <v>894</v>
@@ -4378,13 +4378,13 @@
         <v>984.6</v>
       </c>
       <c r="P43" t="n">
-        <v>7.2</v>
+        <v>21.2</v>
       </c>
       <c r="Q43" t="n">
         <v>25.8</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="S43" t="n">
         <v>2.7</v>
@@ -4396,26 +4396,26 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>7.2 (±25.8)</t>
+          <t>21.2 (±25.8)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0.8% (±2.7%)</t>
+          <t>2.2% (±2.7%)</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>186941</v>
       </c>
       <c r="X43" t="n">
-        <v>3.9</v>
+        <v>11.3</v>
       </c>
       <c r="Y43" t="n">
         <v>13.8</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>3.9(±13.8)</t>
+          <t>11.3(±13.8)</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>110439</v>
+        <v>110443</v>
       </c>
       <c r="E65" t="n">
         <v>90266</v>
@@ -6402,7 +6402,7 @@
         <v>92466.70000000003</v>
       </c>
       <c r="P65" t="n">
-        <v>19322.8</v>
+        <v>19326.8</v>
       </c>
       <c r="Q65" t="n">
         <v>1350.5</v>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>19322.8 (±1350.5)</t>
+          <t>19326.8 (±1350.5)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -6435,11 +6435,11 @@
         <v>180.7</v>
       </c>
       <c r="Y65" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>180.7(±12.6)</t>
+          <t>180.7(±12.7)</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>13413</v>
+        <v>13414</v>
       </c>
       <c r="E67" t="n">
         <v>12531</v>
@@ -6586,7 +6586,7 @@
         <v>12759.5</v>
       </c>
       <c r="P67" t="n">
-        <v>770.2</v>
+        <v>771.2</v>
       </c>
       <c r="Q67" t="n">
         <v>116.7</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>770.2 (±116.7)</t>
+          <t>771.2 (±116.7)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -6619,11 +6619,11 @@
         <v>58</v>
       </c>
       <c r="Y67" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>58.0(±8.7)</t>
+          <t>58.0(±8.8)</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
         <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>1876</v>
+        <v>1894</v>
       </c>
       <c r="E72" t="n">
         <v>1795</v>
@@ -7046,16 +7046,16 @@
         <v>1918.900000000001</v>
       </c>
       <c r="P72" t="n">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="Q72" t="n">
         <v>40.9</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.1</v>
+        <v>0.9</v>
       </c>
       <c r="S72" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -7064,26 +7064,26 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>-2.0 (±40.9)</t>
+          <t>16.0 (±40.9)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>-0.1% (±2.1%)</t>
+          <t>0.9% (±2.2%)</t>
         </is>
       </c>
       <c r="W72" t="n">
         <v>364134</v>
       </c>
       <c r="X72" t="n">
-        <v>-0.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y72" t="n">
         <v>11.2</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>-0.5(±11.2)</t>
+          <t>4.4(±11.2)</t>
         </is>
       </c>
     </row>
